--- a/Semestre2/Exploitation Base de Donnée/TP/Export/TP2_Q10.xlsx
+++ b/Semestre2/Exploitation Base de Donnée/TP/Export/TP2_Q10.xlsx
@@ -67,11 +67,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -87,6 +88,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +169,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -216,7 +222,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -262,6 +268,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -343,6 +350,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -424,6 +432,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -502,6 +511,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -550,17 +560,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="58936208"/>
-        <c:axId val="20383296"/>
+        <c:axId val="5838732"/>
+        <c:axId val="67930170"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58936208"/>
+        <c:axId val="5838732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -582,7 +592,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20383296"/>
+        <c:crossAx val="67930170"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -590,7 +600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20383296"/>
+        <c:axId val="67930170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +615,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -627,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58936208"/>
+        <c:crossAx val="5838732"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -675,7 +685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -684,13 +694,13 @@
     <c:view3D>
       <c:rotX val="300"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -701,9 +711,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
@@ -711,9 +719,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -1431,6 +1437,540 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result 1'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SFR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Result 1'!$B$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5G NR 700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5G NR 2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G NR 3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result 1'!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result 1'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BOUYGUES TELECOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Result 1'!$B$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5G NR 700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5G NR 2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G NR 3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result 1'!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result 1'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORANGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Result 1'!$B$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5G NR 700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5G NR 2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G NR 3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result 1'!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result 1'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FREE MOBILE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Result 1'!$B$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5G NR 700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5G NR 2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G NR 3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result 1'!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Result 1'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Result 1'!$B$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5G NR 700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5G NR 2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G NR 3500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Result 1'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="84388021"/>
+        <c:axId val="53648885"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84388021"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53648885"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53648885"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84388021"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1442,9 +1982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1453,7 +1993,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="825120" y="2713680"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1472,9 +2012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>586080</xdr:colOff>
+      <xdr:colOff>585720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1483,11 +2023,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="795240" y="6167880"/>
+        <a:ext cx="5758560" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>377280</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7939080" y="2531880"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1503,15 +2073,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
   </cols>
   <sheetData>
@@ -1654,7 +2224,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
